--- a/Dados das AR.xlsx
+++ b/Dados das AR.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Universidade\Dissertação\Escrita\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="12315" windowHeight="10230"/>
   </bookViews>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="171">
   <si>
     <t>manag</t>
   </si>
@@ -551,13 +556,16 @@
   </si>
   <si>
     <t>Total Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +661,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -703,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -735,9 +751,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,6 +786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
@@ -952,7 +970,7 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -963,7 +981,7 @@
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>160</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1187,7 +1205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1219,7 +1237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1283,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1443,7 +1461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1475,7 +1493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -1635,7 +1653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1795,7 +1813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1827,7 +1845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -1923,7 +1941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -2147,7 +2165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -2179,7 +2197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2211,7 +2229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2275,7 +2293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2339,7 +2357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2371,7 +2389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -2531,7 +2549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -2563,7 +2581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2595,7 +2613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -2659,7 +2677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2723,7 +2741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -2755,7 +2773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2787,7 +2805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -2851,7 +2869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -2883,7 +2901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
@@ -2979,7 +2997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>119</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>121</v>
       </c>
@@ -3075,7 +3093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>122</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>123</v>
       </c>
@@ -3139,7 +3157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>125</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -3267,7 +3285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>129</v>
       </c>
@@ -3331,7 +3349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>131</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>132</v>
       </c>
@@ -3427,7 +3445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>133</v>
       </c>
@@ -3459,7 +3477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>134</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>135</v>
       </c>
@@ -3523,7 +3541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
@@ -3619,7 +3637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>139</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>140</v>
       </c>
@@ -3683,7 +3701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>141</v>
       </c>
@@ -3715,7 +3733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>142</v>
       </c>
@@ -3747,7 +3765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>143</v>
       </c>
@@ -3779,7 +3797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>144</v>
       </c>
@@ -3811,7 +3829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>145</v>
       </c>
@@ -3843,7 +3861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>146</v>
       </c>
@@ -3875,7 +3893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>147</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>148</v>
       </c>
@@ -3939,7 +3957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>149</v>
       </c>
@@ -3971,7 +3989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>150</v>
       </c>
@@ -4003,7 +4021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>151</v>
       </c>
@@ -4035,7 +4053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>152</v>
       </c>
@@ -4067,7 +4085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>153</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>155</v>
       </c>
@@ -4131,7 +4149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>156</v>
       </c>
@@ -4163,7 +4181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
@@ -4195,7 +4213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>158</v>
       </c>
@@ -4227,7 +4245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
@@ -4273,24 +4291,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
